--- a/data/BOC/FTD/FTDE/FTDE_series.xlsx
+++ b/data/BOC/FTD/FTDE/FTDE_series.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933859B6-5C51-4073-B31B-FF013FF93984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="2160" windowWidth="17280" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="8040" yWindow="225" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISADJUSTED" sheetId="3" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="775">
   <si>
     <t>cat_code</t>
   </si>
@@ -2324,9 +2325,6 @@
     <t>Capital goods, except automotive//Capital Goods</t>
   </si>
   <si>
-    <t>Chemicals-other, n.e.c.//Chemicals-other</t>
-  </si>
-  <si>
     <t>Coal and fuels, other//Coal and related fuels</t>
   </si>
   <si>
@@ -2354,9 +2352,6 @@
     <t>Other goods//Other Goods</t>
   </si>
   <si>
-    <t>Passenger Cars//Passenger cars, new and used//Cars</t>
-  </si>
-  <si>
     <t>Precious metals, other//Other precious metals</t>
   </si>
   <si>
@@ -2620,10 +2615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apparel, household goods - textile//Apparel and household goods - textile//Apparel, household goods-textile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Trucks, buses and special purpose vehicles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2656,10 +2647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apparel,household goods-nontextile//Apparel and household goods - nontextile//Apparel, household goods-nontextile//Apparel,household goods - nontextile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Toys, games, and sporting goods//Toys/games/sporting goods//Toys, games, &amp; sporting goods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2715,21 +2702,9 @@
     <t>Cotton cloth and fabrics</t>
   </si>
   <si>
-    <t>Apparel, textiles, nonwool or cotton//Apparel and textiles - nonwool or cotton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apparel and textiles - nonwool or cotton</t>
   </si>
   <si>
-    <t>Apparel, household goods - cotton//Apparel and household goods - cotton//Apparel, household goods-cotton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apparel, household goods - wool//Apparel and household goods - wool//Apparel, household goods-wool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Business machines and equipment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2851,13 +2826,89 @@
   </si>
   <si>
     <t>Service//Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemicals-organic//Organic chemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemicals-inorganic//Inorganic chemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemicals-fertilizers//Fertilizers, pesticides, and insecticides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemicals-other, n.e.c.//Chemicals-other//Other chemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petroleum products, other//Other petroleum products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonferrous metals, other//Other nonferrous metals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas-natural//Natural gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts-civilian aircraft//Civilian aircraft parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industrial machines, other//Other industrial machinery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engines-civilian aircraft//Civilian aircraft engines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other parts and accessories of vehicles//Other automotive parts and accessories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passenger Cars//Passenger cars, new and used//Cars//Passenger cars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell phones and other household goods, n.e.c.//Cell phones and other household goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel, household goods - textile//Apparel and household goods - textile//Apparel, household goods-textile//Textile apparel and household goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel,household goods-nontextile//Apparel and household goods - nontextile//Apparel, household goods-nontextile//Apparel,household goods - nontextile//Nontextile apparel and household goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artwork, antiques, stamps, etc.//Artwork and other collectibles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel, household goods - wool//Apparel and household goods - wool//Apparel, household goods-wool//Wool apparel and household goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel, household goods - cotton//Apparel and household goods - cotton//Apparel, household goods-cotton//Cotton apparel and household goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel, textiles, nonwool or cotton//Apparel and textiles - nonwool or cotton//Other textile apparel and household goods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2949,11 +3000,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 4 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 3" xfId="4"/>
-    <cellStyle name="一般 4" xfId="3"/>
+    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3230,7 +3281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3290,11 +3341,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3317,16 +3369,16 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3337,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -3354,10 +3406,10 @@
         <v>586</v>
       </c>
       <c r="C3" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="D3" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -3374,10 +3426,10 @@
         <v>581</v>
       </c>
       <c r="C4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="D4" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -3386,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3397,10 +3449,10 @@
         <v>582</v>
       </c>
       <c r="C5" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="D5" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -3409,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3440,7 +3492,7 @@
         <v>580</v>
       </c>
       <c r="D7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3449,7 +3501,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3463,7 +3515,7 @@
         <v>580</v>
       </c>
       <c r="D8" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3472,7 +3524,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3486,7 +3538,7 @@
         <v>580</v>
       </c>
       <c r="D9" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -3495,7 +3547,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,10 +3558,10 @@
         <v>584</v>
       </c>
       <c r="C10" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D10" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -3518,7 +3570,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3609,7 +3661,7 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -3629,7 +3681,7 @@
         <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D16" t="s">
         <v>91</v>
@@ -3689,7 +3741,7 @@
         <v>394</v>
       </c>
       <c r="C19" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D19" t="s">
         <v>387</v>
@@ -3709,7 +3761,7 @@
         <v>393</v>
       </c>
       <c r="C20" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D20" t="s">
         <v>390</v>
@@ -3809,10 +3861,10 @@
         <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D25" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -3849,7 +3901,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
@@ -3909,10 +3961,10 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D30" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -3969,7 +4021,7 @@
         <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -4069,7 +4121,7 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
@@ -4089,7 +4141,7 @@
         <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D39" t="s">
         <v>312</v>
@@ -4109,7 +4161,7 @@
         <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
@@ -4129,7 +4181,7 @@
         <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D41" t="s">
         <v>164</v>
@@ -4209,7 +4261,7 @@
         <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D45" t="s">
         <v>593</v>
@@ -4229,7 +4281,7 @@
         <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>758</v>
       </c>
       <c r="D46" t="s">
         <v>154</v>
@@ -4249,7 +4301,7 @@
         <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>757</v>
       </c>
       <c r="D47" t="s">
         <v>132</v>
@@ -4269,7 +4321,7 @@
         <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>756</v>
       </c>
       <c r="D48" t="s">
         <v>134</v>
@@ -4289,7 +4341,7 @@
         <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>625</v>
+        <v>759</v>
       </c>
       <c r="D49" t="s">
         <v>594</v>
@@ -4309,7 +4361,7 @@
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D50" t="s">
         <v>595</v>
@@ -4349,7 +4401,7 @@
         <v>194</v>
       </c>
       <c r="C52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D52" t="s">
         <v>596</v>
@@ -4389,10 +4441,10 @@
         <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D54" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -4529,7 +4581,7 @@
         <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>762</v>
       </c>
       <c r="D61" t="s">
         <v>124</v>
@@ -4550,7 +4602,7 @@
         <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D62" t="s">
         <v>141</v>
@@ -4570,10 +4622,10 @@
         <v>419</v>
       </c>
       <c r="C63" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D63" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -4630,7 +4682,7 @@
         <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D66" t="s">
         <v>597</v>
@@ -4690,7 +4742,7 @@
         <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D69" t="s">
         <v>598</v>
@@ -4847,10 +4899,10 @@
         <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D77" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -4927,7 +4979,7 @@
         <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>761</v>
       </c>
       <c r="D81" t="s">
         <v>127</v>
@@ -5048,7 +5100,7 @@
         <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>155</v>
+        <v>760</v>
       </c>
       <c r="D87" t="s">
         <v>155</v>
@@ -5109,7 +5161,7 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D90" t="s">
         <v>599</v>
@@ -5149,10 +5201,10 @@
         <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D92" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -5249,7 +5301,7 @@
         <v>200</v>
       </c>
       <c r="C97" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D97" t="s">
         <v>165</v>
@@ -5289,7 +5341,7 @@
         <v>168</v>
       </c>
       <c r="C99" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D99" t="s">
         <v>600</v>
@@ -5390,10 +5442,10 @@
         <v>291</v>
       </c>
       <c r="C104" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D104" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -5410,7 +5462,7 @@
         <v>288</v>
       </c>
       <c r="C105" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="D105" t="s">
         <v>258</v>
@@ -5510,7 +5562,7 @@
         <v>286</v>
       </c>
       <c r="C110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D110" t="s">
         <v>266</v>
@@ -5550,7 +5602,7 @@
         <v>267</v>
       </c>
       <c r="C112" t="s">
-        <v>243</v>
+        <v>765</v>
       </c>
       <c r="D112" t="s">
         <v>243</v>
@@ -5591,10 +5643,10 @@
         <v>275</v>
       </c>
       <c r="C114" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D114" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
@@ -5611,10 +5663,10 @@
         <v>295</v>
       </c>
       <c r="C115" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D115" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E115" s="1">
         <v>3</v>
@@ -5651,7 +5703,7 @@
         <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>245</v>
+        <v>764</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -5691,10 +5743,10 @@
         <v>283</v>
       </c>
       <c r="C119" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D119" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
@@ -5731,10 +5783,10 @@
         <v>289</v>
       </c>
       <c r="C121" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D121" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -5751,7 +5803,7 @@
         <v>298</v>
       </c>
       <c r="C122" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D122" t="s">
         <v>259</v>
@@ -5791,10 +5843,10 @@
         <v>287</v>
       </c>
       <c r="C124" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D124" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
@@ -5811,7 +5863,7 @@
         <v>269</v>
       </c>
       <c r="C125" t="s">
-        <v>263</v>
+        <v>763</v>
       </c>
       <c r="D125" t="s">
         <v>263</v>
@@ -5831,10 +5883,10 @@
         <v>285</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E126" s="6">
         <v>3</v>
@@ -5971,7 +6023,7 @@
         <v>281</v>
       </c>
       <c r="C133" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D133" t="s">
         <v>255</v>
@@ -5991,7 +6043,7 @@
         <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D134" t="s">
         <v>253</v>
@@ -6011,10 +6063,10 @@
         <v>292</v>
       </c>
       <c r="C135" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D135" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E135" s="1">
         <v>3</v>
@@ -6031,10 +6083,10 @@
         <v>65</v>
       </c>
       <c r="C136" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D136" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -6149,7 +6201,7 @@
         <v>319</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>313</v>
+        <v>766</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>313</v>
@@ -6169,7 +6221,7 @@
         <v>316</v>
       </c>
       <c r="C143" t="s">
-        <v>635</v>
+        <v>767</v>
       </c>
       <c r="D143" t="s">
         <v>603</v>
@@ -6189,10 +6241,10 @@
         <v>321</v>
       </c>
       <c r="C144" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D144" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E144" s="1">
         <v>3</v>
@@ -6209,7 +6261,7 @@
         <v>66</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D145" t="s">
         <v>604</v>
@@ -6229,10 +6281,10 @@
         <v>455</v>
       </c>
       <c r="C146" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="D146" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
@@ -6249,10 +6301,10 @@
         <v>457</v>
       </c>
       <c r="C147" t="s">
-        <v>704</v>
+        <v>769</v>
       </c>
       <c r="D147" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E147" s="1">
         <v>3</v>
@@ -6269,10 +6321,10 @@
         <v>458</v>
       </c>
       <c r="C148" t="s">
-        <v>713</v>
+        <v>770</v>
       </c>
       <c r="D148" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E148" s="1">
         <v>3</v>
@@ -6289,10 +6341,10 @@
         <v>453</v>
       </c>
       <c r="C149" t="s">
-        <v>731</v>
+        <v>772</v>
       </c>
       <c r="D149" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E149" s="1">
         <v>3</v>
@@ -6309,10 +6361,10 @@
         <v>346</v>
       </c>
       <c r="C150" t="s">
-        <v>728</v>
+        <v>774</v>
       </c>
       <c r="D150" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E150" s="1">
         <v>3</v>
@@ -6329,7 +6381,7 @@
         <v>344</v>
       </c>
       <c r="C151" t="s">
-        <v>327</v>
+        <v>771</v>
       </c>
       <c r="D151" t="s">
         <v>327</v>
@@ -6343,13 +6395,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E152" s="1">
         <v>3</v>
@@ -6366,10 +6418,10 @@
         <v>348</v>
       </c>
       <c r="C153" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D153" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E153" s="1">
         <v>3</v>
@@ -6406,7 +6458,7 @@
         <v>366</v>
       </c>
       <c r="C155" t="s">
-        <v>328</v>
+        <v>768</v>
       </c>
       <c r="D155" t="s">
         <v>328</v>
@@ -6426,10 +6478,10 @@
         <v>351</v>
       </c>
       <c r="C156" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D156" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E156" s="1">
         <v>3</v>
@@ -6480,13 +6532,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C159" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D159" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E159" s="1">
         <v>3</v>
@@ -6543,10 +6595,10 @@
         <v>349</v>
       </c>
       <c r="C162" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D162" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E162" s="1">
         <v>3</v>
@@ -6583,7 +6635,7 @@
         <v>362</v>
       </c>
       <c r="C164" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D164" t="s">
         <v>605</v>
@@ -6763,7 +6815,7 @@
         <v>352</v>
       </c>
       <c r="C173" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D173" t="s">
         <v>333</v>
@@ -6823,7 +6875,7 @@
         <v>360</v>
       </c>
       <c r="C176" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D176" t="s">
         <v>606</v>
@@ -6843,7 +6895,7 @@
         <v>354</v>
       </c>
       <c r="C177" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D177" t="s">
         <v>335</v>
@@ -6903,7 +6955,7 @@
         <v>345</v>
       </c>
       <c r="C180" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D180" t="s">
         <v>439</v>
@@ -6923,7 +6975,7 @@
         <v>67</v>
       </c>
       <c r="C181" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -6943,7 +6995,7 @@
         <v>21</v>
       </c>
       <c r="C182" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D182" t="s">
         <v>609</v>
@@ -6960,7 +7012,7 @@
         <v>49</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>41</v>
@@ -6977,7 +7029,7 @@
         <v>50</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>42</v>
@@ -7014,7 +7066,7 @@
         <v>52</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>43</v>
@@ -7031,7 +7083,7 @@
         <v>54</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>44</v>
@@ -7048,7 +7100,7 @@
         <v>53</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>45</v>
@@ -7065,7 +7117,7 @@
         <v>55</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>46</v>
@@ -7082,10 +7134,10 @@
         <v>56</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E190" s="1">
         <v>2</v>
@@ -7099,7 +7151,7 @@
         <v>58</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>47</v>
@@ -7116,10 +7168,10 @@
         <v>57</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E192" s="1">
         <v>2</v>
@@ -7133,10 +7185,10 @@
         <v>59</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E193" s="1">
         <v>2</v>
@@ -7146,7 +7198,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F319">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F319">
     <sortCondition ref="F1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7156,7 +7208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7178,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -7237,7 +7289,7 @@
         <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7309,7 +7361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -7335,7 +7387,7 @@
         <v>608</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>576</v>
@@ -7349,7 +7401,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>28</v>
@@ -7469,30 +7521,30 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C12" t="s">
         <v>647</v>
       </c>
-      <c r="C12" t="s">
-        <v>649</v>
-      </c>
       <c r="D12" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7511,16 +7563,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C14" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="D14" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7797,7 +7849,7 @@
         <v>533</v>
       </c>
       <c r="C34" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D34" t="s">
         <v>571</v>
@@ -7805,14 +7857,14 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D35" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7831,14 +7883,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D37" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -7905,7 +7957,7 @@
         <v>539</v>
       </c>
       <c r="C42" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D42" t="s">
         <v>490</v>
@@ -7989,7 +8041,7 @@
         <v>544</v>
       </c>
       <c r="C48" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D48" t="s">
         <v>572</v>
@@ -8001,7 +8053,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D49" t="s">
         <v>611</v>
@@ -8071,7 +8123,7 @@
         <v>549</v>
       </c>
       <c r="C54" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D54" t="s">
         <v>573</v>
@@ -8196,7 +8248,7 @@
         <v>559</v>
       </c>
       <c r="C64" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D64" t="s">
         <v>575</v>
@@ -8238,7 +8290,7 @@
         <v>623</v>
       </c>
       <c r="D67" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
